--- a/evaluation_results_new.xlsx
+++ b/evaluation_results_new.xlsx
@@ -476,10 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'query': 'How can I tell if I have HIV?', 'result': "You can tell if you have HIV by getting tested through blood or saliva tests. The most common test looks for antibodies to HIV in your blood or saliva. Symptoms of HIV can vary, and it's important to get tested if you think you may have been exposed."}</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>{'query': 'How can I tell if I have HIV?', 'result': 'HIV is diagnosed through blood or saliva tests, such as the antibody test. If you suspect you have been exposed to HIV, consider seeking Post-Exposure Prophylaxis (PEP) within 72 hours for treatment. Common ways HIV transmits include unprotected sex, sharing needles, and from mother to baby during birth or breastfeeding.'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" t="n">
         <v>0.9999999999999997</v>
       </c>
@@ -500,7 +502,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'query': 'I slept with someone who tested positive for HIV. Should I start taking PrEP now?', 'result': 'If you have had a potential HIV exposure, consider starting PEP (Post-Exposure Prophylaxis) within 72 hours. PEP involves taking medication for 28 days and can be obtained from healthcare providers, emergency rooms, or clinics. Follow-up HIV tests are needed after PEP treatment to ensure effectiveness.'}</t>
+          <t>{'query': 'I slept with someone who tested positive for HIV. Should I start taking PrEP now?', 'result': 'If you have had a potential HIV exposure, such as unprotected sex with someone who tested positive for HIV, you should consider starting PEP (Post-Exposure Prophylaxis) within 72 hours. PEP involves taking medication for 28 days and can be obtained from healthcare providers, emergency rooms, or clinics. It is important to follow up with HIV tests after PEP treatment to ensure its effectiveness.'}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -559,7 +561,7 @@
         <v>0.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999993089953172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +606,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'query': 'How much does PrEP cost?', 'result': 'The cost of PrEP can vary widely depending on the form you choose. Daily oral PrEP like Truvada costs $1,600 to $2,000 per month, while Descovy is $1,700 to $2,100 per month. Injectable PrEP, such as Apretude, costs about $3,700 per injection every two months.'}</t>
+          <t>{'query': 'How much does PrEP cost?', 'result': 'The cost of PrEP can vary widely depending on the form you choose. Daily oral PrEP like Truvada costs $1,600 to $2,000 per month, while injectable PrEP like Apretude costs about $3,700 per injection every two months. Without insurance, the annual cost of PrEP can range from $960 to $26,800.'}</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -680,14 +682,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'query': 'I’m scared to tell a partner that I have HIV. How can I do it?', 'result': "If you're scared to tell a partner you have HIV, consider having a supportive person with you during the conversation. Choose a calm, private moment to talk to them and explain that you're taking PrEP to protect yourself from HIV. Be prepared to answer their questions and provide resources for them to learn more about PrEP on their own."}</t>
+          <t>{'query': 'I’m scared to tell a partner that I have HIV. How can I do it?', 'result': "When telling a partner about having HIV, choose a calm, private moment for the conversation. Be prepared to explain that you are taking steps to protect yourself and your partner's health. Have resources available for them to learn more about HIV and treatment options."}</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9423486011755492</v>
+        <v>0.9453611999673996</v>
       </c>
     </row>
     <row r="11">
@@ -706,11 +708,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'query': 'Can I stop taking PrEP when my partner and I are exclusive?', 'result': 'Yes, it is important to talk to your healthcare provider before stopping PrEP, even if you and your partner are exclusive. Getting tested for HIV and considering other ways to protect yourself against HIV is crucial before discontinuing PrEP. Always consult with a healthcare professional for personalized advice on when to stop taking PrEP.'}</t>
+          <t>{'query': 'Can I stop taking PrEP when my partner and I are exclusive?', 'result': 'Yes, it is safe to stop taking PrEP if you talk to your doctor, get tested for HIV, and consider other ways to protect yourself against HIV. Always consult with your healthcare provider before discontinuing PrEP to ensure you are still protected. Stopping and starting PrEP repeatedly can make it less effective at preventing HIV and increase your risk of infection during gaps in use.'}</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E11" t="n">
         <v>0.9999999999999997</v>
